--- a/заказы/филиалы и опт/2024/11,24/11,11,24 Ост СЫР филиалы/дв 11,11,24 млрсч ост сыр от Зверева.xlsx
+++ b/заказы/филиалы и опт/2024/11,24/11,11,24 Ост СЫР филиалы/дв 11,11,24 млрсч ост сыр от Зверева.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\11,24\11,11,24 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE57161-6176-40B5-96E2-AFBB46BA1EBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A442E53-9268-447C-968B-1F2B331CCA80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AB$38</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -891,7 +891,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AA13" sqref="AA13"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
